--- a/static/csv/pubs.xlsx
+++ b/static/csv/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scagg\Documents\Shane's Projects\folio\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C793DFD9-535E-414F-9142-9AF31EDAFF57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77712CD1-0EB2-42FA-BF2A-06E14B1FA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="citations" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -168,19 +168,10 @@
     <t>2022Piperata</t>
   </si>
   <si>
-    <t>(submitted)</t>
-  </si>
-  <si>
     <t>(in review)</t>
   </si>
   <si>
     <t xml:space="preserve">Piperata, B., Scaggs, S., Dufour, D., Adams, I. (in review) Measuring food security: An introduction to tools for human biologists and ecologists. American Journal of Human Biology. </t>
-  </si>
-  <si>
-    <t>2022Downey</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Downey,S., Moschler, J., Penados, F., Peterman, W., Qin, R., Scaggs, S., Shuang, S., Walker, M. (submitted). Indigenous Maya swidden practices increase tropical biodiversity in community forests. Proceedings of the National Academy of Sciences. </t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1015,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:XFD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1052,12 +1043,12 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2022</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C2" t="s">
         <v>37</v>
@@ -1066,24 +1057,24 @@
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>39</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
       <c r="D3" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -1091,33 +1082,33 @@
         <v>2021</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2021</v>
+        <v>2020</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -1125,66 +1116,49 @@
         <v>2020</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>2017</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C9" t="s">
-        <v>17</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
         <v>26</v>
       </c>
     </row>
@@ -1195,66 +1169,62 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="str" cm="1">
-        <f t="array" ref="B1:I1">TRANSPOSE(citations!E2:E9)</f>
-        <v>2022Downey</v>
+        <f t="array" ref="B1:H1">TRANSPOSE(citations!E2:E8)</f>
+        <v>2022Piperata</v>
       </c>
       <c r="C1" s="1" t="str">
-        <v>2022Piperata</v>
+        <v>2021Scaggs</v>
       </c>
       <c r="D1" s="1" t="str">
-        <v>2021Scaggs</v>
+        <v>2021Kawa</v>
       </c>
       <c r="E1" s="1" t="str">
-        <v>2021Kawa</v>
+        <v>2020Downey</v>
       </c>
       <c r="F1" s="1" t="str">
-        <v>2020Downey</v>
+        <v>2020Moritz</v>
       </c>
       <c r="G1" s="1" t="str">
-        <v>2020Moritz</v>
+        <v>2019Snopkowski</v>
       </c>
       <c r="H1" s="1" t="str">
-        <v>2019Snopkowski</v>
-      </c>
-      <c r="I1" s="1" t="str">
         <v>2017Scaggs</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2">
+      <c r="G2">
         <v>1</v>
       </c>
       <c r="H2">
         <v>1</v>
       </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1264,27 +1234,24 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3">
+      <c r="E3">
         <v>1</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="E4">
         <v>1</v>
       </c>
       <c r="F4">
@@ -1296,24 +1263,21 @@
       <c r="H4">
         <v>1</v>
       </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="H5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1323,7 +1287,7 @@
       <c r="C7">
         <v>1</v>
       </c>
-      <c r="D7">
+      <c r="E7">
         <v>1</v>
       </c>
       <c r="F7">
@@ -1335,11 +1299,8 @@
       <c r="H7">
         <v>1</v>
       </c>
-      <c r="I7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1364,15 +1325,12 @@
       <c r="H8">
         <v>1</v>
       </c>
-      <c r="I8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
-      <c r="D9">
+      <c r="C9">
         <v>1</v>
       </c>
     </row>

--- a/static/csv/pubs.xlsx
+++ b/static/csv/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scagg\Documents\Shane's Projects\folio\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77712CD1-0EB2-42FA-BF2A-06E14B1FA9E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDCE070-C8FF-40B0-8F9A-162F4CD1B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="citations" sheetId="1" r:id="rId1"/>
@@ -168,10 +168,10 @@
     <t>2022Piperata</t>
   </si>
   <si>
-    <t>(in review)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piperata, B., Scaggs, S., Dufour, D., Adams, I. (in review) Measuring food security: An introduction to tools for human biologists and ecologists. American Journal of Human Biology. </t>
+    <t>(in press)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piperata, B., Scaggs, S., Dufour, D., Adams, I. (IN PRESS) Measuring food security: An introduction to tools for human biologists and ecologists. American Journal of Human Biology. </t>
   </si>
 </sst>
 </file>
@@ -1017,8 +1017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1171,7 +1171,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>

--- a/static/csv/pubs.xlsx
+++ b/static/csv/pubs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\scagg\Documents\Shane's Projects\folio\static\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFDCE070-C8FF-40B0-8F9A-162F4CD1B80F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06697046-1CE7-4E2D-97B2-89D5696A790C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15525" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28050" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="citations" sheetId="1" r:id="rId1"/>
@@ -55,7 +55,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
   <si>
     <t>Year</t>
   </si>
@@ -168,17 +168,41 @@
     <t>2022Piperata</t>
   </si>
   <si>
-    <t>(in press)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Piperata, B., Scaggs, S., Dufour, D., Adams, I. (IN PRESS) Measuring food security: An introduction to tools for human biologists and ecologists. American Journal of Human Biology. </t>
+    <t xml:space="preserve">Piperata, B., Scaggs, S., Dufour, D., Adams, I. (2022) Measuring food security: An introduction to tools for human biologists and ecologists. American Journal of Human Biology. </t>
+  </si>
+  <si>
+    <t>https://doi.org/10.1002/ajhb.23821</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross, C. T., Hooper, P., Smith, J. E., [and 101 others, including Scaggs, S., A.] (in review) Reproductive Inequality in Humans and Other Mammals. Proceedings of the National Academy of Sciences. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scaggs, S. A., Nabors, S., Syed, Z., Rongjun, Q., Downey, S. S., (in prep). A comparative analysis of the swidden agriculture, landscape structure, and ecosystem enhancement. Philosophical Transactions of the Royal Society B. </t>
+  </si>
+  <si>
+    <t>2023Scaggs</t>
+  </si>
+  <si>
+    <t>2023Ross</t>
+  </si>
+  <si>
+    <t>2023Downey</t>
+  </si>
+  <si>
+    <t>Downey, S. S., Walker, M., Moschler, J., Penados, F., Peterman, W., Rongjun, Q., Scaggs, S. A., Song, S. (in review). Intermediate-scale swidden disturbances increase canopy tree diversity in remotely-sensed images of Indigenous Maya community forests. Nature Sustainability.</t>
+  </si>
+  <si>
+    <t>in prep</t>
+  </si>
+  <si>
+    <t>in review</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +333,14 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -611,7 +643,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="42">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -654,14 +686,16 @@
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="42"/>
   </cellXfs>
-  <cellStyles count="42">
+  <cellStyles count="43">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
     <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
     <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
@@ -695,6 +729,7 @@
     <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
     <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
     <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Hyperlink" xfId="42" builtinId="8"/>
     <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
     <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
     <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
@@ -1007,7 +1042,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1015,15 +1050,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="106.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="42.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1044,135 +1080,180 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2022</v>
+      <c r="A2" t="s">
+        <v>45</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="D2" t="s">
         <v>35</v>
       </c>
       <c r="E2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2021</v>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>46</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2021</v>
+      <c r="A4" t="s">
+        <v>46</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2020</v>
+        <v>2022</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>37</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2019</v>
+        <v>2021</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2020</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2019</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" t="s">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
-      <c r="A8">
+    <row r="11" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>2017</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B11" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C11" t="s">
         <v>17</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D11" t="s">
         <v>18</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E11" t="s">
         <v>26</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C5" r:id="rId1" xr:uid="{722CA4C0-F288-4CD3-A8BF-1C54B2CAF1BD}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1180,12 +1261,12 @@
     <col min="1" max="1" width="29.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" s="1" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B1" s="1" t="str" cm="1">
-        <f t="array" ref="B1:H1">TRANSPOSE(citations!E2:E8)</f>
+        <f t="array" ref="B1:H1">TRANSPOSE(citations!E5:E11)</f>
         <v>2022Piperata</v>
       </c>
       <c r="C1" s="1" t="str">
@@ -1206,8 +1287,17 @@
       <c r="H1" s="1" t="str">
         <v>2017Scaggs</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -1223,8 +1313,11 @@
       <c r="H2">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>28</v>
       </c>
@@ -1243,8 +1336,14 @@
       <c r="H3">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>29</v>
       </c>
@@ -1263,21 +1362,33 @@
       <c r="H4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>30</v>
       </c>
       <c r="H5">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>32</v>
       </c>
@@ -1299,8 +1410,14 @@
       <c r="H7">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>33</v>
       </c>
@@ -1325,8 +1442,17 @@
       <c r="H8">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="J8">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>34</v>
       </c>
